--- a/00Temporal/operativos/Eugenio Espejo.xlsx
+++ b/00Temporal/operativos/Eugenio Espejo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>ZONA EUGENIO ESPEJO</t>
   </si>
@@ -142,6 +142,24 @@
   </si>
   <si>
     <t xml:space="preserve">Aprobado por: </t>
+  </si>
+  <si>
+    <t>f inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f fin </t>
+  </si>
+  <si>
+    <t>complejidad</t>
+  </si>
+  <si>
+    <t>ordenanza</t>
+  </si>
+  <si>
+    <t>zonal</t>
+  </si>
+  <si>
+    <t>responsable</t>
   </si>
 </sst>
 </file>
@@ -402,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -476,6 +494,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="H13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -899,7 +919,8 @@
     <col min="6" max="6" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
-    <col min="9" max="256" width="11.42578125" style="1"/>
+    <col min="9" max="10" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="256" width="11.42578125" style="1"/>
     <col min="257" max="257" width="3" style="1" customWidth="1"/>
     <col min="258" max="258" width="13.7109375" style="1" customWidth="1"/>
     <col min="259" max="260" width="10.7109375" style="1" customWidth="1"/>
@@ -1406,74 +1427,92 @@
     <col min="16137" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="38"/>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="E5" s="40"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -1498,8 +1537,26 @@
       <c r="H6" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="I6" s="27">
+        <v>43014.625</v>
+      </c>
+      <c r="J6" s="27">
+        <v>43014.791666666664</v>
+      </c>
+      <c r="K6" s="16">
+        <v>2</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <v>7</v>
+      </c>
+      <c r="N6" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>2</v>
       </c>
@@ -1524,8 +1581,26 @@
       <c r="H7" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I7" s="27">
+        <v>43017.333333333336</v>
+      </c>
+      <c r="J7" s="27">
+        <v>43017.5</v>
+      </c>
+      <c r="K7" s="16">
+        <v>2</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>7</v>
+      </c>
+      <c r="N7" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>3</v>
       </c>
@@ -1550,8 +1625,26 @@
       <c r="H8" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I8" s="28">
+        <v>43023.333333333336</v>
+      </c>
+      <c r="J8" s="28">
+        <v>43023.583333333336</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7</v>
+      </c>
+      <c r="N8" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>4</v>
       </c>
@@ -1576,8 +1669,26 @@
       <c r="H9" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I9" s="28">
+        <v>43024.291666666664</v>
+      </c>
+      <c r="J9" s="28">
+        <v>43024.625</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7</v>
+      </c>
+      <c r="N9" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>5</v>
       </c>
@@ -1602,8 +1713,26 @@
       <c r="H10" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="I10" s="28">
+        <v>43026.5</v>
+      </c>
+      <c r="J10" s="28">
+        <v>43026.666666666664</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7</v>
+      </c>
+      <c r="N10" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>6</v>
       </c>
@@ -1628,8 +1757,26 @@
       <c r="H11" s="23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="28">
+        <v>43032.583333333336</v>
+      </c>
+      <c r="J11" s="28">
+        <v>43032.75</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>7</v>
+      </c>
+      <c r="N11" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>7</v>
       </c>
@@ -1654,8 +1801,26 @@
       <c r="H12" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="I12" s="28">
+        <v>43038.541666666664</v>
+      </c>
+      <c r="J12" s="28">
+        <v>43038.708333333336</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>7</v>
+      </c>
+      <c r="N12" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="14">
         <v>43025</v>
@@ -1678,8 +1843,26 @@
       <c r="H13" s="21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I13" s="28">
+        <v>43038.541666666664</v>
+      </c>
+      <c r="J13" s="28">
+        <v>43038.708333333336</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1">
+        <v>7</v>
+      </c>
+      <c r="N13" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>8</v>
       </c>
@@ -1704,8 +1887,26 @@
       <c r="H14" s="24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="I14" s="28">
+        <v>43038.541666666664</v>
+      </c>
+      <c r="J14" s="28">
+        <v>43038.708333333336</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>7</v>
+      </c>
+      <c r="N14" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>9</v>
       </c>
@@ -1730,8 +1931,26 @@
       <c r="H15" s="22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I15" s="28">
+        <v>43038.541666666664</v>
+      </c>
+      <c r="J15" s="28">
+        <v>43038.708333333336</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4</v>
+      </c>
+      <c r="M15" s="1">
+        <v>7</v>
+      </c>
+      <c r="N15" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>10</v>
       </c>
@@ -1756,8 +1975,26 @@
       <c r="H16" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I16" s="28">
+        <v>43038.541666666664</v>
+      </c>
+      <c r="J16" s="28">
+        <v>43038.708333333336</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>7</v>
+      </c>
+      <c r="N16" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>11</v>
       </c>
@@ -1782,8 +2019,26 @@
       <c r="H17" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="28">
+        <v>43038.541666666664</v>
+      </c>
+      <c r="J17" s="28">
+        <v>43038.708333333336</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>7</v>
+      </c>
+      <c r="N17" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>12</v>
       </c>
@@ -1808,8 +2063,26 @@
       <c r="H18" s="24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="28">
+        <v>43038.541666666664</v>
+      </c>
+      <c r="J18" s="28">
+        <v>43038.708333333336</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4</v>
+      </c>
+      <c r="M18" s="1">
+        <v>7</v>
+      </c>
+      <c r="N18" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
         <v>14</v>
@@ -1821,7 +2094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="5"/>
       <c r="F20" s="8"/>
       <c r="G20" s="9" t="s">
@@ -1831,10 +2104,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F21" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>35</v>
       </c>
@@ -1849,7 +2122,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>38</v>
       </c>
